--- a/document/02计划阶段/金沙江监测数据录入接口清单.xlsx
+++ b/document/02计划阶段/金沙江监测数据录入接口清单.xlsx
@@ -4,30 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="公共" sheetId="5" r:id="rId1"/>
-    <sheet name="水质" sheetId="1" r:id="rId2"/>
-    <sheet name="过饱和气体" sheetId="3" r:id="rId3"/>
-    <sheet name="水温" sheetId="2" r:id="rId4"/>
-    <sheet name="水生生物" sheetId="4" r:id="rId5"/>
+    <sheet name="排序规则" sheetId="6" r:id="rId2"/>
+    <sheet name="水质" sheetId="1" r:id="rId3"/>
+    <sheet name="过饱和气体" sheetId="3" r:id="rId4"/>
+    <sheet name="水温" sheetId="2" r:id="rId5"/>
+    <sheet name="水生生物" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>功能描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询水质的列表接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,19 +49,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地表水明细查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>右上角的下拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排污口明细查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底泥明细查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,23 +130,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与保存按钮冲突，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成果提交审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交审核页面的展示内容重复，操作存在歧义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台存库，如果excel格式不对，则需要显示错误提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询水温的列表接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,14 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>垂向明细查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表层明细查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表层批量导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,22 +167,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同水质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断面，江段，采样点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>疑问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鱼类资源明细查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鱼类资源量导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,11 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加的详情中，采样点重复
-鱼名是否为下拉框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UCD原型没有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>渔业生态环境明细查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>渔业生态环境批量导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,14 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同水质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同水质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看审核信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询列表接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明细查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明细批量导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,27 +295,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>江段是否为静态数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有查询的默认排序规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，新增时，空白界面显示的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除断面数据是，是否需要移动？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增的UCD原型没有更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼类早期明细查询接口</t>
+    <t>在第二步直接进行提交，第三步提示提交成功与否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断面，采样点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江段不是静态数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步，提交审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有水质、水温、过饱和气体、水生生物、陆生生物需要审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存按钮可以删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除断面数据后需要重复查询，移动数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表层的直接按照月份展示，垂向的直接5m一个间隔，到220m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序见排序规则sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序见排序规则sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地表水明细查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询水质的列表接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排污口明细查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底泥明细查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询列表接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表层明细查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询水温的列表接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂向明细查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增的UCD原型没有更新，按照之前讨论的结论来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询水质的列表接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上角的下拉，或切换tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼类资源--捕捞记录列表查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔业生态环境--浮游植物列表查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔业生态环境--浮游动物列表查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼类资源--捕捞记录明鱼尾详情查询接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔业生态环境--底栖动物列表查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼类早期明细查询接口（含分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加的详情UCD中的采样点重复
+鱼名不是下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含审批查询和非审批查询
+所有查询需要支持：翻页，页码，页面大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">监测信息表：默认按照断面编号例如（水质，水温）有准确监测时间的如过饱和气体可按照监测时间排序。（同一批次的监测数据例如每月的水质监测数据，我们是按照断面编号排序的，不同批次的监测数据我们是按照监测时间这样排序的，例如过饱和气体）
+审核界面列表：按照提交时间排序，最新数据在最上面；
+基本信息列表可按照成果提交时间排序，最新数据在最上面。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于列表的删除按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,6 +502,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -787,45 +837,56 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -836,10 +897,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -852,178 +1039,178 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1041,12 +1228,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1059,113 +1246,113 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>79</v>
+      <c r="A2" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1177,357 +1364,373 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
     <col min="3" max="3" width="33.125" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>81</v>
+      <c r="A3" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>88</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
+      <c r="A7" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
+      <c r="A9" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="44.125" customWidth="1"/>
     <col min="3" max="3" width="49.25" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="9"/>
-    </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>64</v>
+      <c r="A16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
